--- a/src/main/resources/157-black-shop/black-shop-nacos_structure.xlsx
+++ b/src/main/resources/157-black-shop/black-shop-nacos_structure.xlsx
@@ -142,7 +142,7 @@
     <t>com.alibaba.nacos.console.security.JwtAuthenticationEntryPoint</t>
   </si>
   <si>
-    <t>commence(javax.servlet.http.HttpServletRequest)</t>
+    <t>commence(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,org.springframework.security.core.AuthenticationException)</t>
   </si>
   <si>
     <t>com.alibaba.nacos.console.security.CustomUserDetails</t>
@@ -253,7 +253,7 @@
     <t>com.alibaba.nacos.console.filter.JwtAuthenticationTokenFilter</t>
   </si>
   <si>
-    <t>doFilter(javax.servlet.ServletRequest)</t>
+    <t>doFilter(javax.servlet.ServletRequest,javax.servlet.ServletResponse,javax.servlet.FilterChain)</t>
   </si>
   <si>
     <t>isAsyncStarted(javax.servlet.http.HttpServletRequest)</t>
@@ -277,7 +277,7 @@
     <t>setEnvironment(org.springframework.core.env.Environment)</t>
   </si>
   <si>
-    <t>doFilterNestedErrorDispatch(javax.servlet.http.HttpServletRequest)</t>
+    <t>doFilterNestedErrorDispatch(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,javax.servlet.FilterChain)</t>
   </si>
   <si>
     <t>shouldNotFilter(javax.servlet.http.HttpServletRequest)</t>
@@ -295,7 +295,7 @@
     <t>javax.servlet.ServletContext</t>
   </si>
   <si>
-    <t>doFilterInternal(javax.servlet.http.HttpServletRequest)</t>
+    <t>doFilterInternal(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,javax.servlet.FilterChain)</t>
   </si>
   <si>
     <t>getEnvironment()</t>
@@ -457,19 +457,19 @@
     <t>com.alibaba.nacos.console.controller.NamespaceController</t>
   </si>
   <si>
-    <t>createNamespace(javax.servlet.http.HttpServletRequest)</t>
+    <t>createNamespace(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String,java.lang.String)</t>
   </si>
   <si>
     <t>editNamespace(java.lang.String,java.lang.String,java.lang.String)</t>
   </si>
   <si>
-    <t>getNamespace(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>deleteConfig(javax.servlet.http.HttpServletRequest)</t>
-  </si>
-  <si>
-    <t>getNamespaces(javax.servlet.http.HttpServletRequest)</t>
+    <t>getNamespace(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String)</t>
+  </si>
+  <si>
+    <t>deleteConfig(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.String)</t>
+  </si>
+  <si>
+    <t>getNamespaces(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse)</t>
   </si>
   <si>
     <t>com.alibaba.nacos.config.server.model.RestResult</t>
@@ -478,7 +478,7 @@
     <t>com.alibaba.nacos.console.controller.AuthController</t>
   </si>
   <si>
-    <t>login(javax.servlet.http.HttpServletResponse)</t>
+    <t>login(java.lang.String,java.lang.String,javax.servlet.http.HttpServletResponse)</t>
   </si>
   <si>
     <t>updatePassword(java.lang.String,java.lang.String)</t>
